--- a/SQL.xlsx
+++ b/SQL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\first\SQL_Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C08766-8724-4F70-A0C5-EF2219B52167}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6ED91F9-A420-47E5-A6A1-0F04FF491ED7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{44D32817-3C1B-4DB4-A46B-460F9BD46A84}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
   <si>
     <t>Question</t>
   </si>
@@ -1501,6 +1501,47 @@
   </si>
   <si>
     <t>inner join</t>
+  </si>
+  <si>
+    <t>select ROUND(ABS(min(LAT_N)-max(LAT_N))+ABS(min(LONG_W)-max(LONG_W)),4)
+from STATION</t>
+  </si>
+  <si>
+    <t>select 
+ROUND(SQRT(POWER(min(LAT_N)-max(LAT_N),2)+POWER(min(LONG_W)-max(LONG_W),2)),4)
+from STATION</t>
+  </si>
+  <si>
+    <t>Euclidean Distance d = √[ (x 2 – x 1 )2 + (y 2 – y 1 )2]</t>
+  </si>
+  <si>
+    <t>calculate mannhatten distance btw p1 and p2 |x1 - x2| + |y1 - y2|.</t>
+  </si>
+  <si>
+    <t>Concatinate example</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select NAME||'('|| substr(OCCUPATION,0,1)||')'
+from OCCUPATIONS
+order by NAME; 
+SELECT 'There are a total of '|| count(Occupation)||' '|| LOWER(occupation)||'s.'
+FROM OCCUPATIONS
+GROUP BY OCCUPATION
+ORDER BY COUNT(Occupation), occupation ;
+(select CONCAT(NAME,'(',LEFT(OCCUPATION,1),')')
+from OCCUPATIONS
+order by NAME limit 100) UNION
+(SELECT CONCAT('There are a total of ',count(Occupation),' ', LCASE(occupation),'s.')
+FROM OCCUPATIONS
+GROUP BY OCCUPATION
+ORDER BY COUNT(Occupation), occupation ASC limit 100);
+</t>
+  </si>
+  <si>
+    <t>Concatination</t>
+  </si>
+  <si>
+    <t>basic medium</t>
   </si>
 </sst>
 </file>
@@ -1596,7 +1637,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1607,9 +1648,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1929,9 +1967,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7464BEF2-F22C-45E2-97C6-8B2A719DF0E6}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
@@ -1977,7 +2015,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1988,7 +2026,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1999,7 +2037,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2010,7 +2048,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2021,7 +2059,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2032,7 +2070,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -2046,7 +2084,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -2060,7 +2098,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -2088,7 +2126,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -2099,13 +2137,13 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="12">
         <v>45021</v>
       </c>
     </row>
@@ -2131,150 +2169,150 @@
       <c r="B18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="11">
         <v>45021</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="11">
         <v>45021</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="11">
         <v>45021</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="60">
-      <c r="A21" s="11" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="12">
         <v>45022</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="11">
         <v>45022</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="11">
         <v>45022</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>46</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="12">
         <v>45022</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="8" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="11">
         <v>45022</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="8" t="s">
         <v>51</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="11">
         <v>45022</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="11">
         <v>45022</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="11">
         <v>45022</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="11">
         <v>45022</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="8" t="s">
         <v>58</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="11">
         <v>45022</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="10" t="s">
         <v>61</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="12">
         <v>45022</v>
       </c>
     </row>
@@ -2285,122 +2323,170 @@
       <c r="B32" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="12">
         <v>45022</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="9" t="s">
+    <row r="33" spans="1:5">
+      <c r="A33" s="8" t="s">
         <v>64</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="11">
         <v>45022</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="11" t="s">
+    <row r="34" spans="1:5">
+      <c r="A34" s="10" t="s">
         <v>67</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="12">
         <v>45022</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:5">
       <c r="B35" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="12"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="9" t="s">
+      <c r="C35" s="11"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="8" t="s">
         <v>69</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="11">
         <v>45022</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="11" t="s">
+    <row r="37" spans="1:5">
+      <c r="A37" s="10" t="s">
         <v>71</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="12">
         <v>45022</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="11" t="s">
+    <row r="38" spans="1:5">
+      <c r="A38" s="10" t="s">
         <v>73</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="12">
         <v>45023</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="9" t="s">
+    <row r="39" spans="1:5">
+      <c r="A39" s="8" t="s">
         <v>75</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="11">
         <v>45023</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="11" t="s">
+    <row r="40" spans="1:5">
+      <c r="A40" s="10" t="s">
         <v>77</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="13">
+      <c r="C40" s="12">
         <v>45023</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="11" t="s">
+    <row r="41" spans="1:5">
+      <c r="A41" s="10" t="s">
         <v>79</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="13">
+      <c r="C41" s="12">
         <v>45023</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="11" t="s">
+    <row r="42" spans="1:5">
+      <c r="A42" s="10" t="s">
         <v>81</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C42" s="12">
         <v>45023</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="11">
+        <v>45023</v>
+      </c>
+      <c r="E43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="12">
+        <v>45023</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="12">
+        <v>45023</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E45" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/SQL.xlsx
+++ b/SQL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\first\SQL_Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6ED91F9-A420-47E5-A6A1-0F04FF491ED7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606E97D8-8DA6-4E64-9E7F-365FA24D8ECC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{44D32817-3C1B-4DB4-A46B-460F9BD46A84}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="99">
   <si>
     <t>Question</t>
   </si>
@@ -1542,6 +1542,191 @@
   </si>
   <si>
     <t>basic medium</t>
+  </si>
+  <si>
+    <t>Query the two cities in STATION with the shortest and longest CITY names, as well as their respective lengths (i.e.: number of characters in the name). If there is more than one smallest or largest city, choose the one that comes first when ordered alphabetically.</t>
+  </si>
+  <si>
+    <t>select CITY, length(CITY)
+from STATION
+where CITY= 
+(select CITY
+from STATION
+order by length(CITY),CITY limit 1) union
+select CITY, length(CITY)
+from STATION
+where CITY= 
+(select CITY
+from STATION
+order by length(CITY) desc,CITY limit 1)</t>
+  </si>
+  <si>
+    <t>select Company.company_code, Company.founder, count(distinct Lead_Manager.lead_manager_code), 
+count(distinct Senior_Manager.senior_manager_code), count(distinct Manager.manager_code), count(distinct Employee.employee_code)
+from Company,Lead_Manager,Senior_Manager,Manager,Employee
+where Company.company_code=Lead_Manager.company_code 
+and Senior_Manager.company_code=Company.company_code
+and Manager.company_code=Company.company_code
+and Employee.company_code=Company.company_code
+group by Company.company_code,Company.founder
+order by Company.company_code</t>
+  </si>
+  <si>
+    <r>
+      <t>Given the table schemas below, write a query to print the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF576871"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>company_code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF576871"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF576871"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>founder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF576871"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> name, total number of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF576871"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>lead</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF576871"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> managers, total number of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF576871"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>senior</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF576871"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> managers, total number of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF576871"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>managers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF576871"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, and total number of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF576871"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>employees</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF576871"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Order your output by ascending </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF576871"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>company_code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF576871"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>select c.company_code,c.founder, count(distinct lm.lead_manager_code), 
+count(distinct sm.senior_manager_code), count(distinct m.manager_code), 
+count(distinct e.employee_code) 
+from company c join lead_manager lm on lm.company_code= c.company_code 
+join senior_manager sm on sm.company_code= c.company_code 
+join manager m on m.company_code= c.company_code 
+join employee e on e.company_code= c.company_code 
+group by c.company_code,c.founder order by c.company_code;</t>
+  </si>
+  <si>
+    <t>with cte as 
+(select lat_n, row_number() over(order by LAT_N) as n from station)
+select round(lat_n,4) from cte 
+where n=(select ceil(count(n)/2) from cte)</t>
+  </si>
+  <si>
+    <t>median</t>
   </si>
 </sst>
 </file>
@@ -1637,7 +1822,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1648,11 +1833,23 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1967,22 +2164,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7464BEF2-F22C-45E2-97C6-8B2A719DF0E6}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="111.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="111.7109375" style="10" customWidth="1"/>
     <col min="2" max="2" width="48.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1992,8 +2189,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" ht="30">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2003,8 +2200,8 @@
         <v>45019</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:4" ht="30">
+      <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2015,7 +2212,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2026,7 +2223,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2037,7 +2234,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2048,7 +2245,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2059,7 +2256,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2069,8 +2266,8 @@
         <v>45020</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:4" ht="29.25">
+      <c r="A9" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -2083,8 +2280,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:4" ht="30">
+      <c r="A10" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -2097,8 +2294,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:4" ht="29.25">
+      <c r="A11" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -2112,7 +2309,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -2125,8 +2322,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="1:4" ht="30">
+      <c r="A13" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -2137,13 +2334,13 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="9">
         <v>45021</v>
       </c>
     </row>
@@ -2163,189 +2360,189 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="8">
         <v>45021</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:3" ht="30">
+      <c r="A19" s="12" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="8">
         <v>45021</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:3" ht="30">
+      <c r="A20" s="12" t="s">
         <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="8">
         <v>45021</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="10" t="s">
+    <row r="21" spans="1:3" ht="44.25">
+      <c r="A21" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="9">
         <v>45022</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:3" ht="30">
+      <c r="A22" s="12" t="s">
         <v>42</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="8">
         <v>45022</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:3" ht="44.25">
+      <c r="A23" s="12" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="8">
         <v>45022</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="9">
         <v>45022</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="12" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="8">
         <v>45022</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="12" t="s">
         <v>51</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="8">
         <v>45022</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="12" t="s">
         <v>52</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="8">
         <v>45022</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="12" t="s">
         <v>55</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="8">
         <v>45022</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="12" t="s">
         <v>56</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="8">
         <v>45022</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="12" t="s">
         <v>58</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="8">
         <v>45022</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="10" t="s">
+    <row r="31" spans="1:3" ht="29.25">
+      <c r="A31" s="14" t="s">
         <v>61</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="9">
         <v>45022</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:3" ht="60">
+      <c r="A32" s="11" t="s">
         <v>62</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="9">
         <v>45022</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="8" t="s">
+    <row r="33" spans="1:5" ht="29.25">
+      <c r="A33" s="12" t="s">
         <v>64</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="8">
         <v>45022</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="10" t="s">
+    <row r="34" spans="1:5" ht="58.5">
+      <c r="A34" s="14" t="s">
         <v>67</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="9">
         <v>45022</v>
       </c>
     </row>
@@ -2353,60 +2550,60 @@
       <c r="B35" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="11"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="8" t="s">
+      <c r="C35" s="8"/>
+    </row>
+    <row r="36" spans="1:5" ht="29.25">
+      <c r="A36" s="12" t="s">
         <v>69</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="8">
         <v>45022</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="10" t="s">
+    <row r="37" spans="1:5" ht="29.25">
+      <c r="A37" s="14" t="s">
         <v>71</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="9">
         <v>45022</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="10" t="s">
+    <row r="38" spans="1:5" ht="29.25">
+      <c r="A38" s="14" t="s">
         <v>73</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="9">
         <v>45023</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="8" t="s">
+    <row r="39" spans="1:5" ht="29.25">
+      <c r="A39" s="12" t="s">
         <v>75</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="8">
         <v>45023</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="14" t="s">
         <v>77</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="9">
         <v>45023</v>
       </c>
       <c r="D40" s="4" t="s">
@@ -2414,27 +2611,27 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="14" t="s">
         <v>79</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="9">
         <v>45023</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="10" t="s">
+    <row r="42" spans="1:5" ht="30">
+      <c r="A42" s="14" t="s">
         <v>81</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="9">
         <v>45023</v>
       </c>
       <c r="D42" s="4" t="s">
@@ -2442,13 +2639,13 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="14" t="s">
         <v>87</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="8">
         <v>45023</v>
       </c>
       <c r="E43" t="s">
@@ -2456,13 +2653,13 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="14" t="s">
         <v>86</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44" s="9">
         <v>45023</v>
       </c>
       <c r="D44" s="4" t="s">
@@ -2473,13 +2670,13 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="14" t="s">
         <v>88</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C45" s="9">
         <v>45023</v>
       </c>
       <c r="D45" s="4" t="s">
@@ -2487,6 +2684,41 @@
       </c>
       <c r="E45" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="43.5">
+      <c r="A46" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="9">
+        <v>45024</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="43.5">
+      <c r="A47" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="9">
+        <v>45024</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="B48" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="75">
+      <c r="A49" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/SQL.xlsx
+++ b/SQL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\first\SQL_Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606E97D8-8DA6-4E64-9E7F-365FA24D8ECC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA14247A-7E4C-4E41-8D68-84694C773712}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{44D32817-3C1B-4DB4-A46B-460F9BD46A84}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="105">
   <si>
     <t>Question</t>
   </si>
@@ -1727,6 +1727,36 @@
   </si>
   <si>
     <t>median</t>
+  </si>
+  <si>
+    <t>select h.hacker_id, h.name
+from Hackers h join Submissions sb on sb.hacker_id= h.hacker_id 
+join Challenges ch on ch.challenge_id= sb.challenge_id 
+join Difficulty df on df.difficulty_level= ch.difficulty_level</t>
+  </si>
+  <si>
+    <t>top competitior</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT(N), 
+IF(P IS NULL, 'Root', IF(N IN (SELECT P FROM BST), 'Inner', 'Leaf')) 
+FROM BST 
+ORDER BY N</t>
+  </si>
+  <si>
+    <t>select n , 
+case when p is null then 'Root' 
+when n not in (select p from BST where p is not null) then 'Leaf' 
+else 'Inner' 
+end as t 
+from BST 
+order by n asc</t>
+  </si>
+  <si>
+    <t>Print the type of nodein the binary tree (Root ,Leaf, Inner)</t>
+  </si>
+  <si>
+    <t>to do</t>
   </si>
 </sst>
 </file>
@@ -1822,7 +1852,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1835,21 +1865,9 @@
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2164,22 +2182,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7464BEF2-F22C-45E2-97C6-8B2A719DF0E6}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:B48"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="111.7109375" style="10" customWidth="1"/>
+    <col min="1" max="1" width="111.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="48.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2189,8 +2207,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2200,8 +2218,8 @@
         <v>45019</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2212,7 +2230,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2223,7 +2241,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2234,7 +2252,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2245,7 +2263,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2256,7 +2274,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2266,8 +2284,8 @@
         <v>45020</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="29.25">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -2280,8 +2298,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -2294,8 +2312,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="29.25">
-      <c r="A11" s="14" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -2309,7 +2327,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -2322,8 +2340,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30">
-      <c r="A13" s="14" t="s">
+    <row r="13" spans="1:4">
+      <c r="A13" s="12" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -2334,7 +2352,7 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -2360,7 +2378,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -2370,8 +2388,8 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="30">
-      <c r="A19" s="12" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -2381,8 +2399,8 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="30">
-      <c r="A20" s="12" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" s="10" t="s">
         <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2392,8 +2410,8 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="44.25">
-      <c r="A21" s="14" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21" s="12" t="s">
         <v>41</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -2403,8 +2421,8 @@
         <v>45022</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30">
-      <c r="A22" s="12" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" s="10" t="s">
         <v>42</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -2414,8 +2432,8 @@
         <v>45022</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="44.25">
-      <c r="A23" s="12" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -2426,7 +2444,7 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="12" t="s">
         <v>46</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -2437,7 +2455,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="10" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -2448,7 +2466,7 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="10" t="s">
         <v>51</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -2459,7 +2477,7 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="10" t="s">
         <v>52</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2470,7 +2488,7 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="10" t="s">
         <v>55</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -2481,7 +2499,7 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="10" t="s">
         <v>56</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -2492,7 +2510,7 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -2502,8 +2520,8 @@
         <v>45022</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="29.25">
-      <c r="A31" s="14" t="s">
+    <row r="31" spans="1:3">
+      <c r="A31" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -2513,8 +2531,8 @@
         <v>45022</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="60">
-      <c r="A32" s="11" t="s">
+    <row r="32" spans="1:3">
+      <c r="A32" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -2524,8 +2542,8 @@
         <v>45022</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="29.25">
-      <c r="A33" s="12" t="s">
+    <row r="33" spans="1:5">
+      <c r="A33" s="10" t="s">
         <v>64</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -2535,8 +2553,8 @@
         <v>45022</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="58.5">
-      <c r="A34" s="14" t="s">
+    <row r="34" spans="1:5">
+      <c r="A34" s="12" t="s">
         <v>67</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -2552,8 +2570,8 @@
       </c>
       <c r="C35" s="8"/>
     </row>
-    <row r="36" spans="1:5" ht="29.25">
-      <c r="A36" s="12" t="s">
+    <row r="36" spans="1:5">
+      <c r="A36" s="10" t="s">
         <v>69</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -2563,8 +2581,8 @@
         <v>45022</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="29.25">
-      <c r="A37" s="14" t="s">
+    <row r="37" spans="1:5">
+      <c r="A37" s="12" t="s">
         <v>71</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -2574,8 +2592,8 @@
         <v>45022</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="29.25">
-      <c r="A38" s="14" t="s">
+    <row r="38" spans="1:5">
+      <c r="A38" s="12" t="s">
         <v>73</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -2585,8 +2603,8 @@
         <v>45023</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="29.25">
-      <c r="A39" s="12" t="s">
+    <row r="39" spans="1:5">
+      <c r="A39" s="10" t="s">
         <v>75</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -2597,7 +2615,7 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="12" t="s">
         <v>77</v>
       </c>
       <c r="B40" s="4" t="s">
@@ -2611,7 +2629,7 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="12" t="s">
         <v>79</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -2624,8 +2642,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="30">
-      <c r="A42" s="14" t="s">
+    <row r="42" spans="1:5">
+      <c r="A42" s="12" t="s">
         <v>81</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -2639,7 +2657,7 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="12" t="s">
         <v>87</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -2653,7 +2671,7 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="12" t="s">
         <v>86</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -2670,7 +2688,7 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="12" t="s">
         <v>88</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -2686,8 +2704,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="43.5">
-      <c r="A46" s="14" t="s">
+    <row r="46" spans="1:5">
+      <c r="A46" s="12" t="s">
         <v>92</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -2697,8 +2715,8 @@
         <v>45024</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="43.5">
-      <c r="A47" s="12" t="s">
+    <row r="47" spans="1:5">
+      <c r="A47" s="10" t="s">
         <v>95</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -2712,13 +2730,55 @@
       <c r="B48" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="75">
-      <c r="A49" s="10" t="s">
+      <c r="C48" s="9">
+        <v>45024</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="1" t="s">
         <v>97</v>
+      </c>
+      <c r="C49" s="9">
+        <v>45024</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="9">
+        <v>45025</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" s="9">
+        <v>45027</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="B52" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" s="9">
+        <v>45027</v>
       </c>
     </row>
   </sheetData>

--- a/SQL.xlsx
+++ b/SQL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\first\SQL_Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA14247A-7E4C-4E41-8D68-84694C773712}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584FE10B-607A-4730-84F8-C2AFE059D58B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{44D32817-3C1B-4DB4-A46B-460F9BD46A84}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="105">
   <si>
     <t>Question</t>
   </si>
@@ -1720,12 +1720,6 @@
 group by c.company_code,c.founder order by c.company_code;</t>
   </si>
   <si>
-    <t>with cte as 
-(select lat_n, row_number() over(order by LAT_N) as n from station)
-select round(lat_n,4) from cte 
-where n=(select ceil(count(n)/2) from cte)</t>
-  </si>
-  <si>
     <t>median</t>
   </si>
   <si>
@@ -1757,6 +1751,23 @@
   </si>
   <si>
     <t>to do</t>
+  </si>
+  <si>
+    <t>with cte as 
+(select lat_n, row_number() over(order by LAT_N) as n from station)
+select round(lat_n,4) from cte 
+where n=(select ceil(count(n)/2) from cte)
+SET @n := -1;
+SELECT ROUND(AVG(sorted.LAT_N), 4) as median
+FROM
+(SELECT @n := @n + 1 as n, LAT_N
+from STATION
+ORDER BY LAT_N) as sorted
+WHERE sorted.n in (floor(@n/2), ceil(@n/2));
+SELECT CAST(ROUND(AVG(LAT_N),4) AS DECIMAL(10,4)) 
+FROM (SELECT LAT_N, ROW_NUMBER() OVER(ORDER BY LAT_N) AS RowNumber, 
+COUNT(*) OVER() AS TotalRows FROM STATION) AS temp 
+WHERE RowNumber IN ((TotalRows + 1) / 2, (TotalRows + 2) / 2);</t>
   </si>
 </sst>
 </file>
@@ -2182,10 +2193,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7464BEF2-F22C-45E2-97C6-8B2A719DF0E6}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2736,38 +2747,38 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C49" s="9">
         <v>45024</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C50" s="9">
         <v>45025</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C51" s="9">
         <v>45027</v>
@@ -2775,10 +2786,21 @@
     </row>
     <row r="52" spans="1:4">
       <c r="B52" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C52" s="9">
         <v>45027</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="9">
+        <v>45032</v>
       </c>
     </row>
   </sheetData>
